--- a/media/price-estimate.xlsx
+++ b/media/price-estimate.xlsx
@@ -62,7 +62,7 @@
     <t>Azure Spring Apps</t>
   </si>
   <si>
-    <t>Standard Tier, 4 vCPUs, 12 GB Memory, 730 Hours</t>
+    <t>Enterprise Tier, 6 vCPUs, 12 GB Memory, 730 Hours</t>
   </si>
   <si>
     <t>Networking</t>
@@ -113,7 +113,7 @@
     <t>All prices shown are in United States – Dollar ($) USD. This is a summary estimate, not a quote. For up to date pricing information please visit https://azure.microsoft.com/pricing/calculator/</t>
   </si>
   <si>
-    <t>This estimate was created at 12/8/2022 12:50:04 AM UTC.</t>
+    <t>This estimate was created at 12/9/2022 3:54:29 PM UTC.</t>
   </si>
 </sst>
 </file>
